--- a/steamcase/user/userLogincase.xlsx
+++ b/steamcase/user/userLogincase.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\litaojun\workspace\steamOmTest\steamcase\user\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="10_ncr:100000_{1707111F-8AE2-41FC-9235-53169DC8CC8A}" xr6:coauthVersionLast="31" xr6:coauthVersionMax="31" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="10_ncr:100000_{087E50D3-DC84-4071-BE2B-AD05F7A4AC98}" xr6:coauthVersionLast="31" xr6:coauthVersionMax="31" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="0" yWindow="0" windowWidth="19440" windowHeight="7485" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -75,7 +75,7 @@
 "pageSize":10
 "resourceTypeId":11
 "keyword":"早教学习儿童编程机器人套件益智智能机器人"
-"phoneNo":"18510699506"
+"phoneNo":"13004167652"
 "scenes":"OTP"</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
@@ -456,7 +456,7 @@
   <dimension ref="A1:H2"/>
   <sheetViews>
     <sheetView tabSelected="1" topLeftCell="B1" workbookViewId="0">
-      <selection activeCell="F2" sqref="F2"/>
+      <selection activeCell="F9" sqref="F9"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.25" x14ac:dyDescent="0.2"/>
